--- a/Optimizer/Optimizer.Runner/Input/Nieobecnosci.xlsx
+++ b/Optimizer/Optimizer.Runner/Input/Nieobecnosci.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PK_SEM_8\MO\projekt-repo\Optimizer\Optimizer.Runner\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFF6C68-88A4-495A-B889-19FB933BB56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88E799-174E-4279-BCBB-BDA5AFE28901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25305" yWindow="1920" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Osoba</t>
   </si>
@@ -52,15 +63,40 @@
   </si>
   <si>
     <t>31-01-2023</t>
+  </si>
+  <si>
+    <t>Grzonka</t>
+  </si>
+  <si>
+    <t>11:15 - 12:45</t>
+  </si>
+  <si>
+    <t>Marszałek</t>
+  </si>
+  <si>
+    <t>12:45 - 13:40</t>
+  </si>
+  <si>
+    <t>Suwada</t>
+  </si>
+  <si>
+    <t>15:00 - 20:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -87,16 +123,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,14 +242,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA19959C-1421-4D12-888F-89D53E478B66}" name="Tabela1" displayName="Tabela1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{CA19959C-1421-4D12-888F-89D53E478B66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA19959C-1421-4D12-888F-89D53E478B66}" name="Tabela1" displayName="Tabela1" ref="A1:C7" headerRowDxfId="0" dataDxfId="5" totalsRowDxfId="4">
+  <autoFilter ref="A1:C7" xr:uid="{CA19959C-1421-4D12-888F-89D53E478B66}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{80BA3955-AA5C-45EC-B88C-5881BFA63E48}" name="Osoba"/>
-    <tableColumn id="2" xr3:uid="{2DEB81D6-52A4-4F57-9165-35CBDB091E9E}" name="Data" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{A2781EEB-596A-431D-B0A8-91B61808F2EA}" name="Zakres"/>
+    <tableColumn id="1" xr3:uid="{80BA3955-AA5C-45EC-B88C-5881BFA63E48}" name="Osoba" totalsRowLabel="Suma" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{2DEB81D6-52A4-4F57-9165-35CBDB091E9E}" name="Data" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A2781EEB-596A-431D-B0A8-91B61808F2EA}" name="Zakres" totalsRowFunction="count" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -386,61 +520,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
